--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-453854.6333952297</v>
+        <v>-404625.4241784703</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617157</v>
+        <v>16693787.93026804</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9173218.982754365</v>
+        <v>9189073.543590695</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>317.4101655353454</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>86.98944817737946</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>141.9873058561424</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -865,22 +865,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>88.57001584021421</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>52.26884852744286</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>215.440092810423</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>99.4476420004344</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1114,13 +1114,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>125.1716544454846</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>63.91879806533829</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>135.1858310010886</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>161.2264066454233</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1339,13 +1339,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>27.0795002619469</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,10 +1354,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>171.7412883245846</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>58.18657619060718</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170492</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,13 +1582,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>157.8824880649893</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>133.5760436147102</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.070001483211257</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1768,7 +1768,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>43.77283765622097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>122.4914619056496</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,7 +1828,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884105</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1859,10 +1859,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>70.44229963873673</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>114.6031722623001</v>
       </c>
     </row>
     <row r="18">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>103.8284742946036</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>48.28314334362916</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2090,7 +2090,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948841</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2099,7 +2099,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>102.1949915925953</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>125.3509485854391</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225813</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>103.8284742946034</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>22.28534392847709</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225813</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225773</v>
+        <v>119.9348501475801</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999604</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083126</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972016</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131895</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>411.900152214786</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828705</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311176</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790307</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755935</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>244.941476576055</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854134</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629787</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477354</v>
+        <v>403.2624357063841</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832448</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516989</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>159.147491321509</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317451</v>
+        <v>152.5306097903942</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316718</v>
       </c>
       <c r="F40" t="n">
-        <v>158.7042731591139</v>
+        <v>163.251380417763</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443323</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>18.40787475443022</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432406</v>
+        <v>76.08474665297312</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934451</v>
+        <v>9.515040001583547</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>145.960351934885</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>231.732048877231</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593274</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681755</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894731</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398234</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989345</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999604</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083126</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972016</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131895</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>411.900152214786</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828705</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311176</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790307</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755935</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>244.941476576055</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854134</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629787</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063841</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832448</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516989</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>159.147491321509</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317451</v>
+        <v>152.5306097903942</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316718</v>
       </c>
       <c r="F43" t="n">
-        <v>158.7042731591139</v>
+        <v>163.251380417763</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443323</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277818</v>
+        <v>18.4078747544301</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>76.08474665297312</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934451</v>
+        <v>9.515040001583547</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>145.960351934885</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>231.732048877231</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593274</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681755</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894731</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398234</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989345</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>410.3479716999604</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>422.0724450083126</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>419.8620838972016</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>417.7483943131895</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>411.900152214786</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>385.6952499828705</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>274.5502499311176</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>71.12675199790307</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>206.1779517755935</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>244.941476576055</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>347.3021774854134</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>389.1182969629787</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>403.2624357063841</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>392.5146593832448</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930498</v>
+        <v>178.2118294516989</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>159.147491321509</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317451</v>
+        <v>152.5306097903942</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>156.3718206316718</v>
       </c>
       <c r="F46" t="n">
-        <v>158.7042731591139</v>
+        <v>163.251380417763</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>152.2467591443323</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277818</v>
+        <v>27.92291475601305</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>76.08474665297312</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934269</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>145.960351934885</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>231.732048877231</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>263.9600676593274</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>272.3973499681755</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>257.6175372894731</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>231.2492340398234</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>213.4568708989345</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.6402219259112</v>
+        <v>1671.54282645597</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5381531497385</v>
+        <v>1637.440757679797</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>1201.530972854241</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2189.95624607292</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>2102.08811660082</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>1512.992809943912</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>1406.536348780554</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>1311.446059927107</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>1217.325645254061</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>1133.941806870223</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>1048.556717136407</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>1006.821064952619</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>2012.149109705013</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>2552.888048337089</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>2606.605388879811</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>2476.426745210413</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>2300.090198210381</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>2100.97268027238</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>1915.649926005574</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>1760.782490244454</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>1634.296711023675</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>789.8743303037888</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1340.421499899382</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1340.421499899382</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1340.421499899382</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1340.421499899382</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>1113.00182921349</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1353.493304866897</v>
+        <v>1671.542826455969</v>
       </c>
       <c r="C5" t="n">
-        <v>1319.391236090724</v>
+        <v>1233.400353639393</v>
       </c>
       <c r="D5" t="n">
-        <v>890.8095618279922</v>
+        <v>797.4905688138373</v>
       </c>
       <c r="E5" t="n">
-        <v>462.2278875652606</v>
+        <v>767.7562280125366</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1395.915300900191</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1395.100250351628</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X5" t="n">
-        <v>1379.998190971343</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y5" t="n">
-        <v>1375.7524713114</v>
+        <v>1724.339643150356</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>705.2562847857771</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>705.2562847857771</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>705.2562847857771</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>269.215608100497</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>269.215608100497</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>689.2685070454004</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1109.321405990304</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1528.990655216085</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>705.2562847857771</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="X7" t="n">
-        <v>705.2562847857771</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>705.2562847857771</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1367.929426813398</v>
+        <v>1415.517618276922</v>
       </c>
       <c r="C8" t="n">
-        <v>929.7869539968215</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>493.877169171266</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>357.3258247257219</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
-        <v>333.4987991753337</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>333.4987991753337</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>44.36864461855001</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461855001</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>479.6233320714679</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>953.7174030612924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>953.7174030612924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>953.7174030612924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>953.7174030612924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>953.7174030612924</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215849</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.278166174443</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.4322309275</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2218.4322309275</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2218.4322309275</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2218.4322309275</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2218.4322309275</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2217.617180378938</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>2202.515120998652</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1794.228997298306</v>
+        <v>1841.81718876183</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.5403896098428</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.0839284464851</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930383</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.873224919992</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361536</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233753</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461855001</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900762</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.99064274522</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876344</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.1975056715053</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103852</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896059</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>950.8650937136564</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>950.8650937136564</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>784.9871009151791</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>615.2290971659163</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>438.5220431276725</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>272.9307681535001</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>133.0285938438747</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461855001</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>44.36864461855001</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>131.3035356248585</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>549.5134173928195</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1008.997284573732</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.256087731377</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1870.925336957159</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.4322309275</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.4322309275</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2197.014409632872</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2197.014409632872</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1951.134963211327</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1672.701962464433</v>
+        <v>2216.169159445629</v>
       </c>
       <c r="V10" t="n">
-        <v>1385.746454334863</v>
+        <v>1929.213651316059</v>
       </c>
       <c r="W10" t="n">
-        <v>1113.720049921155</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X10" t="n">
-        <v>1113.720049921155</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y10" t="n">
-        <v>1113.720049921155</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2290.128451138639</v>
+        <v>2085.765051804504</v>
       </c>
       <c r="C11" t="n">
-        <v>1851.985978322062</v>
+        <v>1647.622578987928</v>
       </c>
       <c r="D11" t="n">
-        <v>1416.076193496507</v>
+        <v>1211.712794162372</v>
       </c>
       <c r="E11" t="n">
-        <v>982.3014486548018</v>
+        <v>1211.712794162372</v>
       </c>
       <c r="F11" t="n">
-        <v>554.4340190640096</v>
+        <v>783.8453645715799</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9579702512979</v>
+        <v>382.4475331948433</v>
       </c>
       <c r="H11" t="n">
-        <v>91.82781569451411</v>
+        <v>93.31737863805968</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165412</v>
+        <v>92.90058926519968</v>
       </c>
       <c r="J11" t="n">
-        <v>526.6657137745719</v>
+        <v>329.9598605030622</v>
       </c>
       <c r="K11" t="n">
-        <v>526.6657137745719</v>
+        <v>1164.31015246124</v>
       </c>
       <c r="L11" t="n">
-        <v>526.6657137745719</v>
+        <v>1164.31015246124</v>
       </c>
       <c r="M11" t="n">
-        <v>920.6779405309055</v>
+        <v>1164.31015246124</v>
       </c>
       <c r="N11" t="n">
-        <v>2046.408923967353</v>
+        <v>2290.041135897687</v>
       </c>
       <c r="O11" t="n">
-        <v>3026.588590537659</v>
+        <v>3270.220802467994</v>
       </c>
       <c r="P11" t="n">
-        <v>3854.898465371055</v>
+        <v>4098.53067730139</v>
       </c>
       <c r="Q11" t="n">
-        <v>4401.397251329649</v>
+        <v>4645.029463259984</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082706</v>
+        <v>4645.029463259984</v>
       </c>
       <c r="S11" t="n">
-        <v>4570.551316082706</v>
+        <v>4586.255143875533</v>
       </c>
       <c r="T11" t="n">
-        <v>4570.551316082706</v>
+        <v>4366.187916748571</v>
       </c>
       <c r="U11" t="n">
-        <v>4311.329013399722</v>
+        <v>4106.965614065588</v>
       </c>
       <c r="V11" t="n">
-        <v>3948.712063333549</v>
+        <v>3744.348663999414</v>
       </c>
       <c r="W11" t="n">
-        <v>3543.856608744582</v>
+        <v>3339.493209410448</v>
       </c>
       <c r="X11" t="n">
-        <v>3124.714145323893</v>
+        <v>2920.350745989759</v>
       </c>
       <c r="Y11" t="n">
-        <v>2716.428021623547</v>
+        <v>2512.064622289412</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.5827713129469</v>
+        <v>599.0723342564925</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>492.6158730931348</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>397.525584239688</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>303.4051695666417</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>220.0213311828034</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>134.6362414489872</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165412</v>
+        <v>92.90058926519968</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>118.9642624256573</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>443.5225873918696</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1098.228634017593</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1638.967572649669</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1756.140350744009</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1692.684913192392</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1562.506269522993</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1386.169722522962</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1187.052204584961</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>1001.729450318155</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134893</v>
+        <v>846.8620145570349</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.88667239271</v>
+        <v>720.3762353362556</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1170.469186933535</v>
+        <v>802.394426682812</v>
       </c>
       <c r="C13" t="n">
-        <v>997.9074754167603</v>
+        <v>629.8327151660369</v>
       </c>
       <c r="D13" t="n">
-        <v>832.0294826182831</v>
+        <v>463.9547223675597</v>
       </c>
       <c r="E13" t="n">
-        <v>662.2714788690204</v>
+        <v>294.1967186182969</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5644248307766</v>
+        <v>117.4896645800532</v>
       </c>
       <c r="G13" t="n">
-        <v>319.9731498566043</v>
+        <v>92.90058926519968</v>
       </c>
       <c r="H13" t="n">
-        <v>180.0709755469788</v>
+        <v>92.90058926519968</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165412</v>
+        <v>92.90058926519968</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>179.4802744298895</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>454.2387290010251</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254406</v>
+        <v>872.4486107689862</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1331.932477949899</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1774.191281107544</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2193.860530333325</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2541.367424303667</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2709.560199168</v>
       </c>
       <c r="R13" t="n">
-        <v>2686.652814929826</v>
+        <v>2709.560199168</v>
       </c>
       <c r="S13" t="n">
-        <v>2527.411446227822</v>
+        <v>2550.318830465996</v>
       </c>
       <c r="T13" t="n">
-        <v>2281.531999806277</v>
+        <v>2304.439384044451</v>
       </c>
       <c r="U13" t="n">
-        <v>2281.531999806277</v>
+        <v>2026.006383297557</v>
       </c>
       <c r="V13" t="n">
-        <v>1994.576491676708</v>
+        <v>1739.050875167987</v>
       </c>
       <c r="W13" t="n">
-        <v>1835.099231005002</v>
+        <v>1467.024470754278</v>
       </c>
       <c r="X13" t="n">
-        <v>1589.707476338414</v>
+        <v>1221.632716087691</v>
       </c>
       <c r="Y13" t="n">
-        <v>1362.287805652523</v>
+        <v>994.213045401799</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2522.744370297625</v>
+        <v>2229.979503763751</v>
       </c>
       <c r="C14" t="n">
-        <v>2084.601897481049</v>
+        <v>1791.837030947174</v>
       </c>
       <c r="D14" t="n">
-        <v>1648.692112655493</v>
+        <v>1355.927246121619</v>
       </c>
       <c r="E14" t="n">
-        <v>1214.917367813788</v>
+        <v>922.1525012799138</v>
       </c>
       <c r="F14" t="n">
-        <v>787.0499382229957</v>
+        <v>787.2272046993987</v>
       </c>
       <c r="G14" t="n">
-        <v>385.6521068462596</v>
+        <v>385.8293733226626</v>
       </c>
       <c r="H14" t="n">
-        <v>96.52195228947585</v>
+        <v>96.69921876587884</v>
       </c>
       <c r="I14" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J14" t="n">
-        <v>531.3598503695339</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.710142327712</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L14" t="n">
-        <v>1365.710142327712</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M14" t="n">
-        <v>1365.710142327712</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N14" t="n">
-        <v>2281.115753715441</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O14" t="n">
-        <v>3261.295420285748</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P14" t="n">
-        <v>4089.605295119144</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4636.104081077739</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830795</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S14" t="n">
-        <v>4803.167235241693</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.167235241693</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U14" t="n">
-        <v>4543.944932558709</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.327982492536</v>
+        <v>3888.563115958661</v>
       </c>
       <c r="W14" t="n">
-        <v>3776.472527903569</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.33006448288</v>
+        <v>3064.565197949005</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.043940782533</v>
+        <v>2656.279074248659</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911042</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E15" t="n">
-        <v>306.6097432180579</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342195</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004034</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H15" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432858</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1086.503374303173</v>
+        <v>965.0176355126347</v>
       </c>
       <c r="C16" t="n">
-        <v>913.9416627863976</v>
+        <v>792.4559239958596</v>
       </c>
       <c r="D16" t="n">
-        <v>748.0636699879203</v>
+        <v>792.4559239958596</v>
       </c>
       <c r="E16" t="n">
-        <v>578.3056662386575</v>
+        <v>622.6979202465968</v>
       </c>
       <c r="F16" t="n">
-        <v>401.5986122004137</v>
+        <v>445.990866208353</v>
       </c>
       <c r="G16" t="n">
-        <v>236.0073372262414</v>
+        <v>280.3995912341807</v>
       </c>
       <c r="H16" t="n">
-        <v>96.1051629166159</v>
+        <v>140.4974169245552</v>
       </c>
       <c r="I16" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S16" t="n">
-        <v>2589.036023419769</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="T16" t="n">
-        <v>2343.156576998224</v>
+        <v>2467.062592874273</v>
       </c>
       <c r="U16" t="n">
-        <v>2064.72357625133</v>
+        <v>2188.629592127379</v>
       </c>
       <c r="V16" t="n">
-        <v>1777.76806812176</v>
+        <v>1901.674083997809</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.741663708052</v>
+        <v>1629.647679584101</v>
       </c>
       <c r="X16" t="n">
-        <v>1505.741663708052</v>
+        <v>1384.255924917514</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.32199302216</v>
+        <v>1156.836254231622</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2304.768053759767</v>
+        <v>2522.504847401168</v>
       </c>
       <c r="C17" t="n">
-        <v>1866.62558094319</v>
+        <v>2084.362374584591</v>
       </c>
       <c r="D17" t="n">
-        <v>1430.715796117635</v>
+        <v>1648.452589759036</v>
       </c>
       <c r="E17" t="n">
-        <v>996.9410512759301</v>
+        <v>1214.677844917331</v>
       </c>
       <c r="F17" t="n">
-        <v>569.0736216851378</v>
+        <v>786.8104153265388</v>
       </c>
       <c r="G17" t="n">
-        <v>167.6757903084017</v>
+        <v>385.4125839498026</v>
       </c>
       <c r="H17" t="n">
-        <v>96.52195228947589</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I17" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J17" t="n">
-        <v>96.1051629166159</v>
+        <v>531.5371168459367</v>
       </c>
       <c r="K17" t="n">
-        <v>467.2396943606312</v>
+        <v>1365.887408804115</v>
       </c>
       <c r="L17" t="n">
-        <v>1542.29966061349</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="M17" t="n">
-        <v>2699.347495824041</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="N17" t="n">
-        <v>3825.078479260488</v>
+        <v>2440.947375056974</v>
       </c>
       <c r="O17" t="n">
-        <v>4805.258145830795</v>
+        <v>3421.127041627281</v>
       </c>
       <c r="P17" t="n">
-        <v>4805.258145830795</v>
+        <v>4249.436916460677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4805.258145830795</v>
+        <v>4795.935702419271</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830795</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S17" t="n">
-        <v>4805.258145830795</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T17" t="n">
-        <v>4585.190918703834</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U17" t="n">
-        <v>4325.96861602085</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V17" t="n">
-        <v>3963.351665954677</v>
+        <v>3888.563115958661</v>
       </c>
       <c r="W17" t="n">
-        <v>3558.49621136571</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X17" t="n">
-        <v>3139.353747945021</v>
+        <v>3064.565197949005</v>
       </c>
       <c r="Y17" t="n">
-        <v>2731.067624244674</v>
+        <v>2948.804417886075</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911042</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E18" t="n">
-        <v>306.6097432180579</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342195</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004034</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H18" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432858</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>946.6011999935472</v>
+        <v>1035.438415695275</v>
       </c>
       <c r="C19" t="n">
-        <v>774.0394884767721</v>
+        <v>862.8767041784998</v>
       </c>
       <c r="D19" t="n">
-        <v>608.1614956782948</v>
+        <v>696.9987113800225</v>
       </c>
       <c r="E19" t="n">
-        <v>438.403491929032</v>
+        <v>527.2407076307597</v>
       </c>
       <c r="F19" t="n">
-        <v>261.6964378907882</v>
+        <v>350.5336535925159</v>
       </c>
       <c r="G19" t="n">
-        <v>96.1051629166159</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="H19" t="n">
-        <v>96.1051629166159</v>
+        <v>184.9423786183435</v>
       </c>
       <c r="I19" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S19" t="n">
-        <v>2553.523404117412</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T19" t="n">
-        <v>2448.646157355186</v>
+        <v>2307.821224172271</v>
       </c>
       <c r="U19" t="n">
-        <v>2170.213156608292</v>
+        <v>2259.050372310019</v>
       </c>
       <c r="V19" t="n">
-        <v>1883.257648478722</v>
+        <v>1972.09486418045</v>
       </c>
       <c r="W19" t="n">
-        <v>1611.231244065014</v>
+        <v>1700.068459766741</v>
       </c>
       <c r="X19" t="n">
-        <v>1365.839489398426</v>
+        <v>1454.676705100154</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.419818712534</v>
+        <v>1227.257034414262</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.744370297625</v>
+        <v>2522.504847401168</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.601897481048</v>
+        <v>2084.362374584591</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.692112655493</v>
+        <v>1648.452589759036</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.917367813788</v>
+        <v>1214.677844917331</v>
       </c>
       <c r="F20" t="n">
-        <v>787.0499382229957</v>
+        <v>786.8104153265388</v>
       </c>
       <c r="G20" t="n">
-        <v>385.6521068462596</v>
+        <v>385.4125839498026</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52195228947589</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I20" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J20" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="K20" t="n">
-        <v>96.1051629166159</v>
+        <v>476.1030181807791</v>
       </c>
       <c r="L20" t="n">
-        <v>1171.165129169475</v>
+        <v>1551.162984433638</v>
       </c>
       <c r="M20" t="n">
-        <v>2328.212964380026</v>
+        <v>2708.210819644189</v>
       </c>
       <c r="N20" t="n">
-        <v>3453.943947816473</v>
+        <v>3833.941803080636</v>
       </c>
       <c r="O20" t="n">
-        <v>4434.12361438678</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="P20" t="n">
-        <v>4805.258145830795</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="Q20" t="n">
-        <v>4805.258145830795</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830795</v>
+        <v>4814.121469650942</v>
       </c>
       <c r="S20" t="n">
-        <v>4721.606272014632</v>
+        <v>4730.469595834779</v>
       </c>
       <c r="T20" t="n">
-        <v>4501.53904488767</v>
+        <v>4510.402368707818</v>
       </c>
       <c r="U20" t="n">
-        <v>4242.316742204686</v>
+        <v>4251.180066024835</v>
       </c>
       <c r="V20" t="n">
-        <v>3879.699792138513</v>
+        <v>3888.563115958661</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.472527903568</v>
+        <v>3483.707661369695</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.330064482879</v>
+        <v>3357.090541586423</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.043940782532</v>
+        <v>2948.804417886076</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>602.4541743843116</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>495.9977132209539</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911042</v>
+        <v>400.9074243675072</v>
       </c>
       <c r="E21" t="n">
-        <v>306.6097432180579</v>
+        <v>306.7870096944609</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342195</v>
+        <v>223.4031713106225</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004034</v>
+        <v>138.0180815768064</v>
       </c>
       <c r="H21" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>122.3461025534764</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432858</v>
+        <v>446.9044275196887</v>
       </c>
       <c r="K21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="L21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="M21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="N21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="O21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1101.610474145412</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.349412777488</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.522190871828</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.066753320211</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1565.888109650812</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1389.551562650781</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.43404471278</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.111290445974</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>850.243854684854</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>723.7580754640748</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.8403690362322</v>
+        <v>946.77846646995</v>
       </c>
       <c r="C22" t="n">
-        <v>792.2786575194572</v>
+        <v>774.2167549531749</v>
       </c>
       <c r="D22" t="n">
-        <v>626.4006647209799</v>
+        <v>608.3387621546976</v>
       </c>
       <c r="E22" t="n">
-        <v>456.6426609717171</v>
+        <v>438.5807584054349</v>
       </c>
       <c r="F22" t="n">
-        <v>279.9356069334733</v>
+        <v>261.8737043671912</v>
       </c>
       <c r="G22" t="n">
-        <v>114.3443319593009</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="H22" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="I22" t="n">
-        <v>96.1051629166159</v>
+        <v>96.28242939301884</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813058</v>
+        <v>182.8621145577087</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524413</v>
+        <v>457.6205691288443</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204023</v>
+        <v>875.8304508968054</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.314318077718</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1777.573121235363</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.242370461145</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2544.749264431486</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.764772819416</v>
+        <v>2712.942039295818</v>
       </c>
       <c r="S22" t="n">
-        <v>2712.764772819416</v>
+        <v>2553.700670593815</v>
       </c>
       <c r="T22" t="n">
-        <v>2466.885326397871</v>
+        <v>2448.823423831589</v>
       </c>
       <c r="U22" t="n">
-        <v>2188.452325650976</v>
+        <v>2170.390423084694</v>
       </c>
       <c r="V22" t="n">
-        <v>1901.496817521407</v>
+        <v>1883.434914955125</v>
       </c>
       <c r="W22" t="n">
-        <v>1629.470413107699</v>
+        <v>1611.408510541416</v>
       </c>
       <c r="X22" t="n">
-        <v>1384.078658441111</v>
+        <v>1366.016755874829</v>
       </c>
       <c r="Y22" t="n">
-        <v>1156.658987755219</v>
+        <v>1138.597085188937</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.756877347711</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309359</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324586</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>267.8521152449521</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,13 +6169,13 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U25" t="n">
         <v>2176.368833962455</v>
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,7 +6233,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957673</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789922</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805147</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>441.380517031252</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930082</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,28 +6449,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716168</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731395</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238767</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856329</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6686,28 +6686,28 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6737,13 +6737,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6923,40 +6923,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477109</v>
+        <v>849.8497331100112</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>507.5300178439734</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057296</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057296</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2597.774136893195</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2351.89469047165</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2073.461689724756</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1786.506181595186</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1514.479777181478</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1269.08802251489</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1041.668351828998</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483847</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445148</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397469</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333641</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207262</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218672</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296045</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296045</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581785</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K38" t="n">
-        <v>540.3167323207291</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L38" t="n">
-        <v>1615.376698573589</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="M38" t="n">
-        <v>2772.424533784139</v>
+        <v>2588.961679785726</v>
       </c>
       <c r="N38" t="n">
-        <v>3898.155517220586</v>
+        <v>2588.961679785726</v>
       </c>
       <c r="O38" t="n">
-        <v>4878.335183790892</v>
+        <v>3569.141346356032</v>
       </c>
       <c r="P38" t="n">
-        <v>4878.335183790892</v>
+        <v>4397.451221189428</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148022</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148022</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.104803109737</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760652</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855546</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567249</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756159</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113347</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190878</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708955</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296045</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>124.942673303418</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397566</v>
+        <v>985.7887806612167</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936669</v>
+        <v>825.0337389223188</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080658</v>
+        <v>670.9624159017185</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716792</v>
+        <v>513.0110819303328</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463115</v>
+        <v>348.1106976699662</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850154</v>
+        <v>194.3260924736708</v>
       </c>
       <c r="H40" t="n">
-        <v>169.826945488266</v>
+        <v>175.732279590408</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296045</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569476</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773805</v>
       </c>
       <c r="L40" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946389</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024849</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231791</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.26924350687</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526509</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440139</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2798.501194923387</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999261</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.993719355593</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2150.367388386576</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034883</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399052</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1381.413730510341</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703677</v>
+        <v>1165.800729602327</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2027.925596445148</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.138034390331</v>
+        <v>1603.82248139747</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961502</v>
+        <v>1181.854406333642</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>765.7936465207267</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218672</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296045</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296045</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032669</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032669</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2419.807615032669</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245845</v>
+        <v>3399.987281602976</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.297156436372</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.795942394966</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148022</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4872.104803109736</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4663.844245760652</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4416.428612855546</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.618332567249</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3672.569547756159</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3265.233754113348</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2868.754300190878</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708955</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296045</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>124.942673303418</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>985.7887806612166</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936678</v>
+        <v>825.0337389223187</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080667</v>
+        <v>670.9624159017185</v>
       </c>
       <c r="E43" t="n">
-        <v>602.82832657168</v>
+        <v>513.0110819303328</v>
       </c>
       <c r="F43" t="n">
-        <v>442.5209799463123</v>
+        <v>348.110697669966</v>
       </c>
       <c r="G43" t="n">
-        <v>293.329412385016</v>
+        <v>194.3260924736708</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882666</v>
+        <v>175.732279590408</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296045</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569476</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773805</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946389</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024849</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231791</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.26924350687</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2628.347854526509</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2808.112346440139</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2798.501194923387</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290617</v>
+        <v>2651.066495999261</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281948</v>
+        <v>2416.993719355593</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2150.367388386576</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231236</v>
+        <v>1875.218550034883</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230404</v>
+        <v>1614.998815399052</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1381.413730510341</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1165.800729602327</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2454.261399483848</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.648111803009</v>
+        <v>2027.925596445147</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1603.822481397469</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1181.854406333641</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>765.7936465207258</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197255</v>
+        <v>376.2024849218672</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296046</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296046</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>534.1336875958783</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1368.483979554056</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.192791675539</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.192791675539</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.192791675539</v>
+        <v>2443.543945806915</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245845</v>
+        <v>3399.987281602977</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4228.297156436372</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4774.795942394967</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.950007148023</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>4872.104803109737</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4663.844245760652</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4416.428612855547</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4065.61833256725</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3672.569547756161</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3265.233754113348</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2868.754300190879</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>605.0507451342532</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>498.5942839708956</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>403.5039951174488</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>309.3835804444025</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>225.9997420605641</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>140.614652326748</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296046</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>124.9426733034181</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>449.5009982696304</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1104.207044895354</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1644.94598352743</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1762.118761621769</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1698.663324070152</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1568.484680400754</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1392.148133400722</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1193.030615462722</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1007.707861195916</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>852.8404254347956</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>726.3546462140164</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>995.3999321779679</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>834.64489043907</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>680.5735674184698</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>522.622233447084</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463119</v>
+        <v>357.721849186717</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850157</v>
+        <v>203.9372439904218</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>175.7322795904081</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>98.87900014296046</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>197.0304023569476</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>483.3605739773805</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>913.1421727946389</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1384.197757024849</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1838.028277231791</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2269.26924350687</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361805</v>
+        <v>2628.347854526509</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2808.112346440139</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579745</v>
+        <v>2808.112346440139</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2660.677647516012</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2426.604870872345</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2159.978539903327</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1884.829701551635</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1624.609966915803</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1391.024882027093</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1175.411881119078</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,7 +8058,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8155,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,22 +8374,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8453,7 +8453,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>478.8828999897217</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318751</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318751</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840076</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>87.8130212184934</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,16 +8687,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>239.4538093311743</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>397.9921482387208</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,13 +8769,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8930,13 +8930,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>924.6521327148782</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>374.883365094965</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>383.6571603916771</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9416,7 +9416,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>374.8833650949646</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9881,10 +9881,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,19 +10346,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>146.8865999785962</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.943066140013</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>966.1043795919809</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>225.6425647383842</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>24.62877888739418</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627257</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>111.4236523045821</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>290.0127116801741</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>80.7453535947901</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>44.00051207685044</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>35.15749310933366</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23747,10 +23747,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>215.7965533724792</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>289.600090201043</v>
       </c>
     </row>
     <row r="18">
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>227.3655273957966</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23987,7 +23987,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24029,10 +24029,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>298.6119084504817</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>289.6000902010433</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142711</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>3.14686572942388</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627252</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627256</v>
+        <v>37.71410486740321</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>108.4066747320007</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>108.4066747320008</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>98.89163473041788</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.515040001583547</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>803081.5900290549</v>
+        <v>808070.1908521218</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>803081.5900290549</v>
+        <v>808070.1908521218</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>805754.3853953378</v>
+        <v>808070.1908521218</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740059.6226368689</v>
+        <v>748836.9452687905</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>767720.0525306325</v>
+        <v>768764.6039287151</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>767720.0525306326</v>
+        <v>768764.6039287153</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>767720.0525306326</v>
+        <v>768764.6039287152</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>803992.6829620148</v>
+        <v>803992.6829620147</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>816770.3457040864</v>
+        <v>813191.2585670808</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816770.3457040864</v>
+        <v>813191.2585670808</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816770.3457040864</v>
+        <v>813191.2585670808</v>
       </c>
     </row>
   </sheetData>
@@ -26320,16 +26320,16 @@
         <v>147440.5129698623</v>
       </c>
       <c r="E2" t="n">
-        <v>133364.5928872001</v>
+        <v>134946.3357949877</v>
       </c>
       <c r="F2" t="n">
-        <v>138349.2209617908</v>
+        <v>138537.4573790929</v>
       </c>
       <c r="G2" t="n">
-        <v>138349.2209617909</v>
+        <v>138537.4573790929</v>
       </c>
       <c r="H2" t="n">
-        <v>138349.2209617908</v>
+        <v>138537.4573790928</v>
       </c>
       <c r="I2" t="n">
         <v>144885.8356377719</v>
@@ -26347,13 +26347,13 @@
         <v>144885.8356377719</v>
       </c>
       <c r="N2" t="n">
-        <v>147440.5129698623</v>
+        <v>146725.0289166311</v>
       </c>
       <c r="O2" t="n">
-        <v>147440.5129698623</v>
+        <v>146725.028916631</v>
       </c>
       <c r="P2" t="n">
-        <v>147440.5129698623</v>
+        <v>146725.028916631</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178234</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518678</v>
+        <v>147420.5464117492</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510025</v>
+        <v>12112.31405579401</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120716</v>
+        <v>19872.3124878128</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.84506379727</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242545</v>
+        <v>123042.5210430559</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.56827099791</v>
+        <v>9350.882464078632</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="D4" t="n">
-        <v>154281.6601423559</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>25482.65588368833</v>
+        <v>25784.88760309011</v>
       </c>
       <c r="F4" t="n">
-        <v>26435.09430218522</v>
+        <v>26471.06159862457</v>
       </c>
       <c r="G4" t="n">
-        <v>26435.09430218524</v>
+        <v>26471.06159862457</v>
       </c>
       <c r="H4" t="n">
-        <v>26435.09430218523</v>
+        <v>26471.06159862457</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26451,13 +26451,13 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353612</v>
+        <v>38297.4702741525</v>
       </c>
       <c r="O4" t="n">
-        <v>42419.67665353613</v>
+        <v>38297.47027415251</v>
       </c>
       <c r="P4" t="n">
-        <v>42419.67665353613</v>
+        <v>38297.47027415251</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.769910098</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445713</v>
+        <v>70604.44784155177</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.92381662808</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.92381662808</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.92381662808</v>
+        <v>73174.64633869432</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099071</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099071</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>76130.68928099073</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235607.962287532</v>
+        <v>-281229.0104079601</v>
       </c>
       <c r="C6" t="n">
-        <v>-93416.66162782212</v>
+        <v>-57529.31182391528</v>
       </c>
       <c r="D6" t="n">
-        <v>-114667.7958343739</v>
+        <v>-57529.31182391524</v>
       </c>
       <c r="E6" t="n">
-        <v>-137163.1960528131</v>
+        <v>-108977.1294902658</v>
       </c>
       <c r="F6" t="n">
-        <v>22061.80056787728</v>
+        <v>26698.49851697298</v>
       </c>
       <c r="G6" t="n">
-        <v>38874.20284297755</v>
+        <v>38810.81257276698</v>
       </c>
       <c r="H6" t="n">
-        <v>38874.20284297751</v>
+        <v>38810.81257276695</v>
       </c>
       <c r="I6" t="n">
-        <v>19021.96981056956</v>
+        <v>19587.98145458127</v>
       </c>
       <c r="J6" t="n">
-        <v>-71530.94706321351</v>
+        <v>-135191.054775312</v>
       </c>
       <c r="K6" t="n">
-        <v>39483.51828177668</v>
+        <v>39460.29394239406</v>
       </c>
       <c r="L6" t="n">
-        <v>6502.673217979434</v>
+        <v>39460.29394239406</v>
       </c>
       <c r="M6" t="n">
-        <v>-107055.8528424777</v>
+        <v>-83582.22710066187</v>
       </c>
       <c r="N6" t="n">
-        <v>16516.6533192386</v>
+        <v>22939.48249692531</v>
       </c>
       <c r="O6" t="n">
-        <v>29505.22159023643</v>
+        <v>32290.3649610039</v>
       </c>
       <c r="P6" t="n">
-        <v>29505.22159023646</v>
+        <v>32290.36496100385</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318751</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020676</v>
+        <v>1161.257365814996</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1203.530367412736</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1235.987501787006</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117707</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.0297712888014</v>
+        <v>493.7421592071391</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702229</v>
+        <v>42.27300159773986</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704658</v>
+        <v>74.73013597200975</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117707</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888014</v>
+        <v>493.7421592071391</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117707</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712888014</v>
+        <v>493.7421592071391</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702229</v>
+        <v>42.27300159773986</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>114.1405214419545</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,7 +27442,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>327.9615906091029</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>47.91312667565481</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.0786548992115</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>369.7677262526158</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>143.5506877550888</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>68.61278171133571</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>144.1344859240868</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>369.8422500230726</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>294.2511663921991</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27913,13 +27913,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>28.67402588637395</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>248.5691704774788</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874697</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874738</v>
+        <v>11.68860308009829</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,13 +34772,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>58.38468441396117</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,25 +35091,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1941962971706</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,7 +35173,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>478.8828999897217</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318751</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318751</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840076</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>87.8130212184934</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>239.4538093311743</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>397.9921482387208</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1137.102003471159</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158825</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35580,7 +35580,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>924.6521327148782</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,7 +35808,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,10 +35817,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821539</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>374.883365094965</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>18.36946185017314</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,10 +36054,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36121,7 +36121,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>383.6571603916771</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36133,10 +36133,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>374.8833650949646</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,10 +36291,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q22" t="n">
         <v>169.8916917821539</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,10 +36601,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>288.735183296506</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>447.2222511564761</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>146.8865999785962</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778281</v>
+        <v>99.14283051917894</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761949</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881397</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446569</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756989</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313929</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,10 +37780,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>1061.943066140013</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>901.152332228356</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917894</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761949</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881397</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446569</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756989</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313929</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>966.1043795919809</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>99.14283051917896</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>289.2223955761949</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>434.1228270881397</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>475.8137214446569</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>458.4146668756989</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>435.5969356313929</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552546</v>
+        <v>362.7056676966054</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>181.5802948622522</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
